--- a/Findings/RQ1 sex disaggregated findings.xlsx
+++ b/Findings/RQ1 sex disaggregated findings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelbateman/Documents/GitHub/sex_differences_CSF_proteins_brain_structure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelbateman/Documents/GitHub/sex_differences_CSF_proteins_brain_structure/Findings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223C4306-B89B-834E-B381-82EB004E0581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A2DAA6-171C-4540-8381-D5664CECDA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="9940" windowWidth="30820" windowHeight="11060" activeTab="1" xr2:uid="{24E46355-110F-5649-8CDB-724A1B24785F}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
-    <numFmt numFmtId="170" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -121,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,10 +131,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -452,9 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B1E7BA-B1F9-F240-9D4B-7FDA9D1A066B}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -482,10 +477,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -505,10 +500,10 @@
       <c r="E2" s="4">
         <v>0.210738848205656</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>-4.7664889999999998E-5</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>2.1338570000000001E-4</v>
       </c>
     </row>
@@ -528,10 +523,10 @@
       <c r="E3" s="4">
         <v>0.70308675381372399</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>-3.3066520000000002E-4</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>2.239039E-4</v>
       </c>
     </row>
@@ -551,10 +546,10 @@
       <c r="E4" s="4">
         <v>0.25433921587351399</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>-1.1595940000000001E-4</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>4.3301039999999998E-4</v>
       </c>
     </row>
@@ -567,9 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2D746B-43A1-7B43-8D3D-5EB12386F90F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -596,10 +589,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -619,10 +612,10 @@
       <c r="E2" s="4">
         <v>2.666948572E-2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>-2.3681799999999999E-4</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>-1.4761E-5</v>
       </c>
     </row>
@@ -642,10 +635,10 @@
       <c r="E3" s="4">
         <v>8.2113599999999996E-6</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>2.7980159999999997E-4</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>6.9476E-4</v>
       </c>
     </row>
@@ -665,10 +658,10 @@
       <c r="E4" s="4">
         <v>2.8999999999999998E-10</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>4.8213580000000002E-4</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>8.7496489999999998E-4</v>
       </c>
     </row>
